--- a/HG0B1CEU6N_V2/Released/BOM/HG0B1CEU.xlsx
+++ b/HG0B1CEU6N_V2/Released/BOM/HG0B1CEU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\HEXABITZ\Projects\STM32-G0-Dip-Module\HG0B1CEU6N_V2\Released\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maste\OneDrive\Documents\HG0B1CEU-Hardware\HG0B1CEU6N_V2\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEB6F3B-74C8-480D-AE87-F484A3B22806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A9D2CB-9166-46A9-AF98-AB4F6A592B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HG0B1CEU" sheetId="1" r:id="rId1"/>
@@ -622,6 +622,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -642,9 +645,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1023,22 +1023,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="70.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="70.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="84" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:7" ht="46.2" x14ac:dyDescent="0.85">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
@@ -1050,7 +1050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1059,7 +1059,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1069,14 +1069,14 @@
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="29">
         <v>1</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1086,14 +1086,14 @@
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="30">
         <v>44900</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1103,12 +1103,12 @@
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="8" spans="1:7" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>1</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>58</v>
       </c>
@@ -1136,10 +1136,10 @@
         <v>62</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>57</v>
@@ -1148,7 +1148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>59</v>
       </c>
@@ -1156,10 +1156,10 @@
         <v>63</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>61</v>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>66</v>
       </c>
@@ -1178,7 +1178,7 @@
       <c r="C11" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="28">
         <v>629105136821</v>
       </c>
       <c r="E11" s="25" t="s">
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>86</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>67</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>69</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>102</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>68</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>74</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>87</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>88</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>89</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>33</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>97</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>94</v>
       </c>
@@ -1416,10 +1416,10 @@
         <v>90</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>92</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>93</v>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>98</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>38</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>43</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>53</v>
       </c>
